--- a/io/input/tutorial_04_methionine_cycle.xlsx
+++ b/io/input/tutorial_04_methionine_cycle.xlsx
@@ -713,7 +713,7 @@
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.64"/>
   </cols>
   <sheetData>
@@ -802,7 +802,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,7 +826,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4548,7 +4548,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4587,7 +4587,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4595,7 +4595,8 @@
         <v>0.1382</v>
       </c>
       <c r="C2" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B2</f>
+        <v>0.01382</v>
       </c>
       <c r="D2" s="18" t="n">
         <v>0.1325</v>
@@ -4610,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -4618,7 +4619,8 @@
         <v>0.8148</v>
       </c>
       <c r="C3" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B3</f>
+        <v>0.08148</v>
       </c>
       <c r="D3" s="18" t="n">
         <v>0.8687</v>
@@ -4633,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -4641,7 +4643,8 @@
         <v>0.2491</v>
       </c>
       <c r="C4" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B4</f>
+        <v>0.02491</v>
       </c>
       <c r="D4" s="18" t="n">
         <v>0.158</v>
@@ -4656,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -4664,7 +4667,8 @@
         <v>1.0164</v>
       </c>
       <c r="C5" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B5</f>
+        <v>0.10164</v>
       </c>
       <c r="D5" s="18" t="n">
         <v>1.0037</v>
@@ -4679,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>47</v>
       </c>
@@ -4687,7 +4691,8 @@
         <v>0.0475</v>
       </c>
       <c r="C6" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B6</f>
+        <v>0.00475</v>
       </c>
       <c r="D6" s="18" t="n">
         <v>0.023</v>
@@ -4702,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -4710,7 +4715,8 @@
         <v>1.0639</v>
       </c>
       <c r="C7" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B7</f>
+        <v>0.10639</v>
       </c>
       <c r="D7" s="18" t="n">
         <v>1.0267</v>
@@ -4725,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -4733,7 +4739,8 @@
         <v>0.0852</v>
       </c>
       <c r="C8" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B8</f>
+        <v>0.00852</v>
       </c>
       <c r="D8" s="18" t="n">
         <v>0.0878</v>
@@ -4748,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
@@ -4756,7 +4763,8 @@
         <v>0.3556</v>
       </c>
       <c r="C9" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B9</f>
+        <v>0.03556</v>
       </c>
       <c r="D9" s="18" t="n">
         <v>0.3102</v>
@@ -4771,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -4779,7 +4787,8 @@
         <v>0.6231</v>
       </c>
       <c r="C10" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B10</f>
+        <v>0.06231</v>
       </c>
       <c r="D10" s="18" t="n">
         <v>0.6288</v>
@@ -4794,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
@@ -4802,7 +4811,8 @@
         <v>0.0852</v>
       </c>
       <c r="C11" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B11</f>
+        <v>0.00852</v>
       </c>
       <c r="D11" s="18" t="n">
         <v>0.0878</v>
@@ -4817,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="17" customFormat="true" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
@@ -4825,7 +4835,8 @@
         <v>0.7613</v>
       </c>
       <c r="C12" s="19" t="n">
-        <v>0</v>
+        <f aca="false">0.1*B12</f>
+        <v>0.07613</v>
       </c>
       <c r="D12" s="18" t="n">
         <v>0.7613</v>

--- a/io/input/tutorial_04_methionine_cycle.xlsx
+++ b/io/input/tutorial_04_methionine_cycle.xlsx
@@ -707,7 +707,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -802,7 +802,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,7 +826,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
